--- a/vendas_e_variaveis_socioeconomicas.xlsx
+++ b/vendas_e_variaveis_socioeconomicas.xlsx
@@ -556,7 +556,7 @@
         <v>43101</v>
       </c>
       <c r="B2" t="n">
-        <v>74441</v>
+        <v>74709</v>
       </c>
       <c r="C2" t="n">
         <v>461.42</v>
@@ -618,7 +618,7 @@
         <v>43132</v>
       </c>
       <c r="B3" t="n">
-        <v>101527</v>
+        <v>101543</v>
       </c>
       <c r="C3" t="n">
         <v>464.96</v>
@@ -680,7 +680,7 @@
         <v>43160</v>
       </c>
       <c r="B4" t="n">
-        <v>103592</v>
+        <v>103598</v>
       </c>
       <c r="C4" t="n">
         <v>467.75</v>
@@ -742,7 +742,7 @@
         <v>43191</v>
       </c>
       <c r="B5" t="n">
-        <v>142266</v>
+        <v>142282</v>
       </c>
       <c r="C5" t="n">
         <v>469.91</v>
@@ -804,7 +804,7 @@
         <v>43221</v>
       </c>
       <c r="B6" t="n">
-        <v>73345</v>
+        <v>73361</v>
       </c>
       <c r="C6" t="n">
         <v>472.64</v>
@@ -866,7 +866,7 @@
         <v>43252</v>
       </c>
       <c r="B7" t="n">
-        <v>150437</v>
+        <v>150445</v>
       </c>
       <c r="C7" t="n">
         <v>475.57</v>
@@ -928,7 +928,7 @@
         <v>43282</v>
       </c>
       <c r="B8" t="n">
-        <v>144539</v>
+        <v>144553</v>
       </c>
       <c r="C8" t="n">
         <v>478.14</v>
@@ -990,7 +990,7 @@
         <v>43313</v>
       </c>
       <c r="B9" t="n">
-        <v>146818</v>
+        <v>146856</v>
       </c>
       <c r="C9" t="n">
         <v>480.64</v>
@@ -1052,7 +1052,7 @@
         <v>43344</v>
       </c>
       <c r="B10" t="n">
-        <v>116199</v>
+        <v>116209</v>
       </c>
       <c r="C10" t="n">
         <v>482.68</v>
@@ -1114,7 +1114,7 @@
         <v>43374</v>
       </c>
       <c r="B11" t="n">
-        <v>140986</v>
+        <v>140998</v>
       </c>
       <c r="C11" t="n">
         <v>485.51</v>
@@ -1176,7 +1176,7 @@
         <v>43405</v>
       </c>
       <c r="B12" t="n">
-        <v>167734</v>
+        <v>167740</v>
       </c>
       <c r="C12" t="n">
         <v>488.42</v>
@@ -1238,7 +1238,7 @@
         <v>43435</v>
       </c>
       <c r="B13" t="n">
-        <v>147860</v>
+        <v>147866</v>
       </c>
       <c r="C13" t="n">
         <v>491.7</v>
@@ -1300,7 +1300,7 @@
         <v>43466</v>
       </c>
       <c r="B14" t="n">
-        <v>110699</v>
+        <v>110721</v>
       </c>
       <c r="C14" t="n">
         <v>545.74</v>
@@ -1364,7 +1364,7 @@
         <v>43497</v>
       </c>
       <c r="B15" t="n">
-        <v>127027</v>
+        <v>127089</v>
       </c>
       <c r="C15" t="n">
         <v>550.4</v>
@@ -1428,7 +1428,7 @@
         <v>43525</v>
       </c>
       <c r="B16" t="n">
-        <v>118814</v>
+        <v>118836</v>
       </c>
       <c r="C16" t="n">
         <v>552.63</v>
@@ -1492,7 +1492,7 @@
         <v>43556</v>
       </c>
       <c r="B17" t="n">
-        <v>146626</v>
+        <v>146666</v>
       </c>
       <c r="C17" t="n">
         <v>554.7</v>
@@ -1556,7 +1556,7 @@
         <v>43586</v>
       </c>
       <c r="B18" t="n">
-        <v>161177</v>
+        <v>161215</v>
       </c>
       <c r="C18" t="n">
         <v>557.0599999999999</v>
@@ -1620,7 +1620,7 @@
         <v>43617</v>
       </c>
       <c r="B19" t="n">
-        <v>127475</v>
+        <v>127509</v>
       </c>
       <c r="C19" t="n">
         <v>561.0700000000001</v>
@@ -1684,7 +1684,7 @@
         <v>43647</v>
       </c>
       <c r="B20" t="n">
-        <v>158657</v>
+        <v>158663</v>
       </c>
       <c r="C20" t="n">
         <v>563.73</v>
@@ -1748,7 +1748,7 @@
         <v>43678</v>
       </c>
       <c r="B21" t="n">
-        <v>172495</v>
+        <v>172515</v>
       </c>
       <c r="C21" t="n">
         <v>564.9299999999999</v>
@@ -1812,7 +1812,7 @@
         <v>43709</v>
       </c>
       <c r="B22" t="n">
-        <v>167782</v>
+        <v>167810</v>
       </c>
       <c r="C22" t="n">
         <v>568.6799999999999</v>
@@ -1876,7 +1876,7 @@
         <v>43739</v>
       </c>
       <c r="B23" t="n">
-        <v>199103</v>
+        <v>199117</v>
       </c>
       <c r="C23" t="n">
         <v>572.64</v>
@@ -1940,7 +1940,7 @@
         <v>43770</v>
       </c>
       <c r="B24" t="n">
-        <v>168035</v>
+        <v>168071</v>
       </c>
       <c r="C24" t="n">
         <v>576.1</v>
@@ -2004,7 +2004,7 @@
         <v>43800</v>
       </c>
       <c r="B25" t="n">
-        <v>147638</v>
+        <v>147694</v>
       </c>
       <c r="C25" t="n">
         <v>578.99</v>
@@ -2068,7 +2068,7 @@
         <v>43831</v>
       </c>
       <c r="B26" t="n">
-        <v>152731</v>
+        <v>152767</v>
       </c>
       <c r="C26" t="n">
         <v>580.34</v>
@@ -2136,7 +2136,7 @@
         <v>43862</v>
       </c>
       <c r="B27" t="n">
-        <v>164204</v>
+        <v>164222</v>
       </c>
       <c r="C27" t="n">
         <v>583.08</v>
@@ -2204,7 +2204,7 @@
         <v>43891</v>
       </c>
       <c r="B28" t="n">
-        <v>117971</v>
+        <v>118003</v>
       </c>
       <c r="C28" t="n">
         <v>586.29</v>
@@ -2272,7 +2272,7 @@
         <v>43922</v>
       </c>
       <c r="B29" t="n">
-        <v>43691</v>
+        <v>43701</v>
       </c>
       <c r="C29" t="n">
         <v>591.84</v>
@@ -2340,7 +2340,7 @@
         <v>43952</v>
       </c>
       <c r="B30" t="n">
-        <v>134412</v>
+        <v>134436</v>
       </c>
       <c r="C30" t="n">
         <v>597.83</v>
@@ -2408,7 +2408,7 @@
         <v>43983</v>
       </c>
       <c r="B31" t="n">
-        <v>160095</v>
+        <v>160111</v>
       </c>
       <c r="C31" t="n">
         <v>602.88</v>
@@ -2476,7 +2476,7 @@
         <v>44013</v>
       </c>
       <c r="B32" t="n">
-        <v>176691</v>
+        <v>176703</v>
       </c>
       <c r="C32" t="n">
         <v>609.54</v>
@@ -2544,7 +2544,7 @@
         <v>44044</v>
       </c>
       <c r="B33" t="n">
-        <v>190184</v>
+        <v>190206</v>
       </c>
       <c r="C33" t="n">
         <v>616.88</v>
@@ -2612,7 +2612,7 @@
         <v>44075</v>
       </c>
       <c r="B34" t="n">
-        <v>200475</v>
+        <v>200487</v>
       </c>
       <c r="C34" t="n">
         <v>623.99</v>
@@ -2680,7 +2680,7 @@
         <v>44105</v>
       </c>
       <c r="B35" t="n">
-        <v>224236</v>
+        <v>224270</v>
       </c>
       <c r="C35" t="n">
         <v>631.3</v>
@@ -2748,7 +2748,7 @@
         <v>44136</v>
       </c>
       <c r="B36" t="n">
-        <v>227253</v>
+        <v>227261</v>
       </c>
       <c r="C36" t="n">
         <v>638.87</v>
@@ -2816,7 +2816,7 @@
         <v>44166</v>
       </c>
       <c r="B37" t="n">
-        <v>199732</v>
+        <v>199738</v>
       </c>
       <c r="C37" t="n">
         <v>646.9</v>
@@ -2884,7 +2884,7 @@
         <v>44197</v>
       </c>
       <c r="B38" t="n">
-        <v>177980</v>
+        <v>177988</v>
       </c>
       <c r="C38" t="n">
         <v>652.3</v>
@@ -2952,7 +2952,7 @@
         <v>44228</v>
       </c>
       <c r="B39" t="n">
-        <v>192856</v>
+        <v>192868</v>
       </c>
       <c r="C39" t="n">
         <v>658.9</v>
@@ -3020,7 +3020,7 @@
         <v>44256</v>
       </c>
       <c r="B40" t="n">
-        <v>205365</v>
+        <v>205381</v>
       </c>
       <c r="C40" t="n">
         <v>667.85</v>
@@ -3088,7 +3088,7 @@
         <v>44287</v>
       </c>
       <c r="B41" t="n">
-        <v>213175</v>
+        <v>213323</v>
       </c>
       <c r="C41" t="n">
         <v>676.17</v>
@@ -3156,7 +3156,7 @@
         <v>44317</v>
       </c>
       <c r="B42" t="n">
-        <v>226495</v>
+        <v>226573</v>
       </c>
       <c r="C42" t="n">
         <v>685.41</v>
@@ -3224,7 +3224,7 @@
         <v>44348</v>
       </c>
       <c r="B43" t="n">
-        <v>119200</v>
+        <v>119316</v>
       </c>
       <c r="C43" t="n">
         <v>694.6</v>
@@ -3292,7 +3292,7 @@
         <v>44378</v>
       </c>
       <c r="B44" t="n">
-        <v>196244</v>
+        <v>196390</v>
       </c>
       <c r="C44" t="n">
         <v>703.61</v>
@@ -3360,7 +3360,7 @@
         <v>44409</v>
       </c>
       <c r="B45" t="n">
-        <v>134728</v>
+        <v>134812</v>
       </c>
       <c r="C45" t="n">
         <v>718.5</v>
@@ -3428,7 +3428,7 @@
         <v>44440</v>
       </c>
       <c r="B46" t="n">
-        <v>162672</v>
+        <v>162816</v>
       </c>
       <c r="C46" t="n">
         <v>727.5700000000001</v>
@@ -3496,7 +3496,7 @@
         <v>44470</v>
       </c>
       <c r="B47" t="n">
-        <v>151146</v>
+        <v>151252</v>
       </c>
       <c r="C47" t="n">
         <v>735.77</v>
@@ -3564,7 +3564,7 @@
         <v>44501</v>
       </c>
       <c r="B48" t="n">
-        <v>181581</v>
+        <v>181675</v>
       </c>
       <c r="C48" t="n">
         <v>745.62</v>
@@ -3632,7 +3632,7 @@
         <v>44531</v>
       </c>
       <c r="B49" t="n">
-        <v>120873</v>
+        <v>120903</v>
       </c>
       <c r="C49" t="n">
         <v>753.97</v>
@@ -3700,7 +3700,7 @@
         <v>44562</v>
       </c>
       <c r="B50" t="n">
-        <v>136606</v>
+        <v>136746</v>
       </c>
       <c r="C50" t="n">
         <v>759.55</v>
@@ -3768,7 +3768,7 @@
         <v>44593</v>
       </c>
       <c r="B51" t="n">
-        <v>142243</v>
+        <v>142291</v>
       </c>
       <c r="C51" t="n">
         <v>765.73</v>
@@ -3836,7 +3836,7 @@
         <v>44621</v>
       </c>
       <c r="B52" t="n">
-        <v>137472</v>
+        <v>137598</v>
       </c>
       <c r="C52" t="n">
         <v>771.74</v>
@@ -3904,7 +3904,7 @@
         <v>44652</v>
       </c>
       <c r="B53" t="n">
-        <v>161148</v>
+        <v>161178</v>
       </c>
       <c r="C53" t="n">
         <v>778.62</v>
@@ -3972,7 +3972,7 @@
         <v>44682</v>
       </c>
       <c r="B54" t="n">
-        <v>179539</v>
+        <v>179589</v>
       </c>
       <c r="C54" t="n">
         <v>787.3200000000001</v>
@@ -4040,7 +4040,7 @@
         <v>44713</v>
       </c>
       <c r="B55" t="n">
-        <v>178199</v>
+        <v>178253</v>
       </c>
       <c r="C55" t="n">
         <v>796.8099999999999</v>
@@ -4108,7 +4108,7 @@
         <v>44743</v>
       </c>
       <c r="B56" t="n">
-        <v>165318</v>
+        <v>165344</v>
       </c>
       <c r="C56" t="n">
         <v>806.9299999999999</v>
@@ -4176,7 +4176,7 @@
         <v>44774</v>
       </c>
       <c r="B57" t="n">
-        <v>180602</v>
+        <v>180650</v>
       </c>
       <c r="C57" t="n">
         <v>815.37</v>
@@ -4244,7 +4244,7 @@
         <v>44805</v>
       </c>
       <c r="B58" t="n">
-        <v>170473</v>
+        <v>170519</v>
       </c>
       <c r="C58" t="n">
         <v>830.6799999999999</v>
@@ -4312,7 +4312,7 @@
         <v>44835</v>
       </c>
       <c r="B59" t="n">
-        <v>162230</v>
+        <v>162306</v>
       </c>
       <c r="C59" t="n">
         <v>833.5599999999999</v>
@@ -4380,7 +4380,7 @@
         <v>44866</v>
       </c>
       <c r="B60" t="n">
-        <v>173413</v>
+        <v>173437</v>
       </c>
       <c r="C60" t="n">
         <v>841.99</v>
@@ -4448,7 +4448,7 @@
         <v>44896</v>
       </c>
       <c r="B61" t="n">
-        <v>177248</v>
+        <v>177274</v>
       </c>
       <c r="C61" t="n">
         <v>851.1900000000001</v>
@@ -4516,7 +4516,7 @@
         <v>44927</v>
       </c>
       <c r="B62" t="n">
-        <v>138104</v>
+        <v>138130</v>
       </c>
       <c r="C62" t="n">
         <v>857.96</v>
@@ -4584,7 +4584,7 @@
         <v>44958</v>
       </c>
       <c r="B63" t="n">
-        <v>176409</v>
+        <v>176427</v>
       </c>
       <c r="C63" t="n">
         <v>864.08</v>
@@ -4652,7 +4652,7 @@
         <v>44986</v>
       </c>
       <c r="B64" t="n">
-        <v>185162</v>
+        <v>185188</v>
       </c>
       <c r="C64" t="n">
         <v>873.88</v>
@@ -4720,7 +4720,7 @@
         <v>45017</v>
       </c>
       <c r="B65" t="n">
-        <v>172376</v>
+        <v>172394</v>
       </c>
       <c r="C65" t="n">
         <v>880.75</v>
@@ -4788,7 +4788,7 @@
         <v>45047</v>
       </c>
       <c r="B66" t="n">
-        <v>174011</v>
+        <v>174033</v>
       </c>
       <c r="C66" t="n">
         <v>887.09</v>
@@ -4856,7 +4856,7 @@
         <v>45078</v>
       </c>
       <c r="B67" t="n">
-        <v>158508</v>
+        <v>158546</v>
       </c>
       <c r="C67" t="n">
         <v>893.8</v>
@@ -4924,7 +4924,7 @@
         <v>45108</v>
       </c>
       <c r="B68" t="n">
-        <v>170077</v>
+        <v>170163</v>
       </c>
       <c r="C68" t="n">
         <v>900.54</v>
@@ -4992,7 +4992,7 @@
         <v>45139</v>
       </c>
       <c r="B69" t="n">
-        <v>185359</v>
+        <v>185421</v>
       </c>
       <c r="C69" t="n">
         <v>907.14</v>
@@ -5060,7 +5060,7 @@
         <v>45170</v>
       </c>
       <c r="B70" t="n">
-        <v>160861</v>
+        <v>160909</v>
       </c>
       <c r="C70" t="n">
         <v>915.0700000000001</v>
@@ -5128,7 +5128,7 @@
         <v>45200</v>
       </c>
       <c r="B71" t="n">
-        <v>188158</v>
+        <v>188202</v>
       </c>
       <c r="C71" t="n">
         <v>921.61</v>
@@ -5196,7 +5196,7 @@
         <v>45231</v>
       </c>
       <c r="B72" t="n">
-        <v>208184</v>
+        <v>208218</v>
       </c>
       <c r="C72" t="n">
         <v>927.67</v>
@@ -5264,7 +5264,7 @@
         <v>45261</v>
       </c>
       <c r="B73" t="n">
-        <v>190200</v>
+        <v>190264</v>
       </c>
       <c r="C73" t="n">
         <v>936.58</v>
@@ -5332,7 +5332,7 @@
         <v>45292</v>
       </c>
       <c r="B74" t="n">
-        <v>152884</v>
+        <v>152896</v>
       </c>
       <c r="C74" t="n">
         <v>939.49</v>
@@ -5400,7 +5400,7 @@
         <v>45323</v>
       </c>
       <c r="B75" t="n">
-        <v>183035</v>
+        <v>183099</v>
       </c>
       <c r="C75" t="n">
         <v>944.71</v>
@@ -5468,7 +5468,7 @@
         <v>45352</v>
       </c>
       <c r="B76" t="n">
-        <v>185318</v>
+        <v>185356</v>
       </c>
       <c r="C76" t="n">
         <v>946.4299999999999</v>
@@ -5536,7 +5536,7 @@
         <v>45383</v>
       </c>
       <c r="B77" t="n">
-        <v>226522</v>
+        <v>226566</v>
       </c>
       <c r="C77" t="n">
         <v>953.17</v>
@@ -5604,7 +5604,7 @@
         <v>45413</v>
       </c>
       <c r="B78" t="n">
-        <v>228377</v>
+        <v>228395</v>
       </c>
       <c r="C78" t="n">
         <v>962.38</v>
@@ -5672,7 +5672,7 @@
         <v>45444</v>
       </c>
       <c r="B79" t="n">
-        <v>226107</v>
+        <v>226131</v>
       </c>
       <c r="C79" t="n">
         <v>971.58</v>
@@ -5740,7 +5740,7 @@
         <v>45474</v>
       </c>
       <c r="B80" t="n">
-        <v>259029</v>
+        <v>259063</v>
       </c>
       <c r="C80" t="n">
         <v>979.45</v>
@@ -5808,7 +5808,7 @@
         <v>45505</v>
       </c>
       <c r="B81" t="n">
-        <v>273282</v>
+        <v>273320</v>
       </c>
       <c r="C81" t="n">
         <v>989.01</v>
@@ -5876,7 +5876,7 @@
         <v>45536</v>
       </c>
       <c r="B82" t="n">
-        <v>267480</v>
+        <v>267516</v>
       </c>
       <c r="C82" t="n">
         <v>997.53</v>
@@ -5944,7 +5944,7 @@
         <v>45566</v>
       </c>
       <c r="B83" t="n">
-        <v>288098</v>
+        <v>288116</v>
       </c>
       <c r="C83" t="n">
         <v>1004.45</v>
@@ -6012,7 +6012,7 @@
         <v>45597</v>
       </c>
       <c r="B84" t="n">
-        <v>272427</v>
+        <v>272431</v>
       </c>
       <c r="C84" t="n">
         <v>1011.2</v>
@@ -6080,7 +6080,7 @@
         <v>45627</v>
       </c>
       <c r="B85" t="n">
-        <v>244977</v>
+        <v>245237</v>
       </c>
       <c r="C85" t="n">
         <v>1015.06</v>
@@ -6148,7 +6148,7 @@
         <v>45658</v>
       </c>
       <c r="B86" t="n">
-        <v>223030</v>
+        <v>223044</v>
       </c>
       <c r="C86" t="n">
         <v>1022.61</v>
@@ -6216,7 +6216,7 @@
         <v>45689</v>
       </c>
       <c r="B87" t="n">
-        <v>252101</v>
+        <v>252105</v>
       </c>
       <c r="C87" t="n">
         <v>1034.72</v>
@@ -6284,7 +6284,7 @@
         <v>45717</v>
       </c>
       <c r="B88" t="n">
-        <v>211987</v>
+        <v>211993</v>
       </c>
       <c r="C88" t="n">
         <v>1039.83</v>
@@ -6352,7 +6352,7 @@
         <v>45748</v>
       </c>
       <c r="B89" t="n">
-        <v>210655</v>
+        <v>210805</v>
       </c>
       <c r="C89" t="n">
         <v>1047.08</v>
@@ -6420,7 +6420,7 @@
         <v>45778</v>
       </c>
       <c r="B90" t="n">
-        <v>222330</v>
+        <v>222356</v>
       </c>
       <c r="C90" t="n">
         <v>1054.28</v>
@@ -6488,7 +6488,7 @@
         <v>45809</v>
       </c>
       <c r="B91" t="n">
-        <v>231070</v>
+        <v>231102</v>
       </c>
       <c r="C91" t="n">
         <v>1058.99</v>
@@ -6556,7 +6556,7 @@
         <v>45839</v>
       </c>
       <c r="B92" t="n">
-        <v>268202</v>
+        <v>268248</v>
       </c>
       <c r="C92" t="n">
         <v>1058.14</v>
@@ -6622,7 +6622,7 @@
         <v>45870</v>
       </c>
       <c r="B93" t="n">
-        <v>287030</v>
+        <v>287068</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
